--- a/natmiOut/OldD0/LR-pairs_lrc2p/Col4a1-Itga1.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Col4a1-Itga1.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>53.0557327013389</v>
+        <v>179.1580256666667</v>
       </c>
       <c r="H2">
-        <v>53.0557327013389</v>
+        <v>537.4740770000001</v>
       </c>
       <c r="I2">
-        <v>0.136726351308732</v>
+        <v>0.3468013736386751</v>
       </c>
       <c r="J2">
-        <v>0.136726351308732</v>
+        <v>0.3468013736386751</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.4420293775365</v>
+        <v>22.11318066666666</v>
       </c>
       <c r="N2">
-        <v>10.4420293775365</v>
+        <v>66.33954199999999</v>
       </c>
       <c r="O2">
-        <v>0.1072566605634245</v>
+        <v>0.1993293533530854</v>
       </c>
       <c r="P2">
-        <v>0.1072566605634245</v>
+        <v>0.1993293533530854</v>
       </c>
       <c r="Q2">
-        <v>554.0095195141047</v>
+        <v>3961.753789450304</v>
       </c>
       <c r="R2">
-        <v>554.0095195141047</v>
+        <v>35655.78410505273</v>
       </c>
       <c r="S2">
-        <v>0.0146648118523962</v>
+        <v>0.06912769354935887</v>
       </c>
       <c r="T2">
-        <v>0.0146648118523962</v>
+        <v>0.06912769354935885</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>53.0557327013389</v>
+        <v>179.1580256666667</v>
       </c>
       <c r="H3">
-        <v>53.0557327013389</v>
+        <v>537.4740770000001</v>
       </c>
       <c r="I3">
-        <v>0.136726351308732</v>
+        <v>0.3468013736386751</v>
       </c>
       <c r="J3">
-        <v>0.136726351308732</v>
+        <v>0.3468013736386751</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>7.6114441113118</v>
+        <v>7.622575</v>
       </c>
       <c r="N3">
-        <v>7.6114441113118</v>
+        <v>22.867725</v>
       </c>
       <c r="O3">
-        <v>0.07818193647306586</v>
+        <v>0.06871028498970018</v>
       </c>
       <c r="P3">
-        <v>0.07818193647306586</v>
+        <v>0.06871028498970018</v>
       </c>
       <c r="Q3">
-        <v>403.8307442409389</v>
+        <v>1365.645487496092</v>
       </c>
       <c r="R3">
-        <v>403.8307442409389</v>
+        <v>12290.80938746483</v>
       </c>
       <c r="S3">
-        <v>0.01068953091221337</v>
+        <v>0.02382882121753286</v>
       </c>
       <c r="T3">
-        <v>0.01068953091221337</v>
+        <v>0.02382882121753286</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>53.0557327013389</v>
+        <v>179.1580256666667</v>
       </c>
       <c r="H4">
-        <v>53.0557327013389</v>
+        <v>537.4740770000001</v>
       </c>
       <c r="I4">
-        <v>0.136726351308732</v>
+        <v>0.3468013736386751</v>
       </c>
       <c r="J4">
-        <v>0.136726351308732</v>
+        <v>0.3468013736386751</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>79.3020597030673</v>
+        <v>81.20214833333334</v>
       </c>
       <c r="N4">
-        <v>79.3020597030673</v>
+        <v>243.606445</v>
       </c>
       <c r="O4">
-        <v>0.8145614029635097</v>
+        <v>0.7319603616572145</v>
       </c>
       <c r="P4">
-        <v>0.8145614029635097</v>
+        <v>0.7319603616572145</v>
       </c>
       <c r="Q4">
-        <v>4207.428882271557</v>
+        <v>14548.01657529181</v>
       </c>
       <c r="R4">
-        <v>4207.428882271557</v>
+        <v>130932.1491776263</v>
       </c>
       <c r="S4">
-        <v>0.1113720085441224</v>
+        <v>0.2538448588717834</v>
       </c>
       <c r="T4">
-        <v>0.1113720085441224</v>
+        <v>0.2538448588717834</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>238.374216152697</v>
+        <v>239.807332</v>
       </c>
       <c r="H5">
-        <v>238.374216152697</v>
+        <v>719.421996</v>
       </c>
       <c r="I5">
-        <v>0.614298119377678</v>
+        <v>0.4642019905988459</v>
       </c>
       <c r="J5">
-        <v>0.614298119377678</v>
+        <v>0.4642019905988459</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>10.4420293775365</v>
+        <v>22.11318066666666</v>
       </c>
       <c r="N5">
-        <v>10.4420293775365</v>
+        <v>66.33954199999999</v>
       </c>
       <c r="O5">
-        <v>0.1072566605634245</v>
+        <v>0.1993293533530854</v>
       </c>
       <c r="P5">
-        <v>0.1072566605634245</v>
+        <v>0.1993293533530854</v>
       </c>
       <c r="Q5">
-        <v>2489.110567913698</v>
+        <v>5302.902857707314</v>
       </c>
       <c r="R5">
-        <v>2489.110567913698</v>
+        <v>47726.12571936583</v>
       </c>
       <c r="S5">
-        <v>0.06588756487484163</v>
+        <v>0.09252908261128298</v>
       </c>
       <c r="T5">
-        <v>0.06588756487484163</v>
+        <v>0.09252908261128298</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>238.374216152697</v>
+        <v>239.807332</v>
       </c>
       <c r="H6">
-        <v>238.374216152697</v>
+        <v>719.421996</v>
       </c>
       <c r="I6">
-        <v>0.614298119377678</v>
+        <v>0.4642019905988459</v>
       </c>
       <c r="J6">
-        <v>0.614298119377678</v>
+        <v>0.4642019905988459</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.6114441113118</v>
+        <v>7.622575</v>
       </c>
       <c r="N6">
-        <v>7.6114441113118</v>
+        <v>22.867725</v>
       </c>
       <c r="O6">
-        <v>0.07818193647306586</v>
+        <v>0.06871028498970018</v>
       </c>
       <c r="P6">
-        <v>0.07818193647306586</v>
+        <v>0.06871028498970018</v>
       </c>
       <c r="Q6">
-        <v>1814.372023824012</v>
+        <v>1827.9493737199</v>
       </c>
       <c r="R6">
-        <v>1814.372023824012</v>
+        <v>16451.5443634791</v>
       </c>
       <c r="S6">
-        <v>0.04802701654470944</v>
+        <v>0.03189545106683283</v>
       </c>
       <c r="T6">
-        <v>0.04802701654470944</v>
+        <v>0.03189545106683283</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>238.374216152697</v>
+        <v>239.807332</v>
       </c>
       <c r="H7">
-        <v>238.374216152697</v>
+        <v>719.421996</v>
       </c>
       <c r="I7">
-        <v>0.614298119377678</v>
+        <v>0.4642019905988459</v>
       </c>
       <c r="J7">
-        <v>0.614298119377678</v>
+        <v>0.4642019905988459</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>79.3020597030673</v>
+        <v>81.20214833333334</v>
       </c>
       <c r="N7">
-        <v>79.3020597030673</v>
+        <v>243.606445</v>
       </c>
       <c r="O7">
-        <v>0.8145614029635097</v>
+        <v>0.7319603616572145</v>
       </c>
       <c r="P7">
-        <v>0.8145614029635097</v>
+        <v>0.7319603616572145</v>
       </c>
       <c r="Q7">
-        <v>18903.56632101305</v>
+        <v>19472.87054448491</v>
       </c>
       <c r="R7">
-        <v>18903.56632101305</v>
+        <v>175255.8349003642</v>
       </c>
       <c r="S7">
-        <v>0.500383537958127</v>
+        <v>0.3397774569207301</v>
       </c>
       <c r="T7">
-        <v>0.500383537958127</v>
+        <v>0.3397774569207301</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>96.6132644219299</v>
+        <v>97.63589966666666</v>
       </c>
       <c r="H8">
-        <v>96.6132644219299</v>
+        <v>292.907699</v>
       </c>
       <c r="I8">
-        <v>0.24897552931359</v>
+        <v>0.1889966357624789</v>
       </c>
       <c r="J8">
-        <v>0.24897552931359</v>
+        <v>0.1889966357624789</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>10.4420293775365</v>
+        <v>22.11318066666666</v>
       </c>
       <c r="N8">
-        <v>10.4420293775365</v>
+        <v>66.33954199999999</v>
       </c>
       <c r="O8">
-        <v>0.1072566605634245</v>
+        <v>0.1993293533530854</v>
       </c>
       <c r="P8">
-        <v>0.1072566605634245</v>
+        <v>0.1993293533530854</v>
       </c>
       <c r="Q8">
-        <v>1008.838545353494</v>
+        <v>2159.040288881539</v>
       </c>
       <c r="R8">
-        <v>1008.838545353494</v>
+        <v>19431.36259993385</v>
       </c>
       <c r="S8">
-        <v>0.02670428383618667</v>
+        <v>0.03767257719244354</v>
       </c>
       <c r="T8">
-        <v>0.02670428383618667</v>
+        <v>0.03767257719244354</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>96.6132644219299</v>
+        <v>97.63589966666666</v>
       </c>
       <c r="H9">
-        <v>96.6132644219299</v>
+        <v>292.907699</v>
       </c>
       <c r="I9">
-        <v>0.24897552931359</v>
+        <v>0.1889966357624789</v>
       </c>
       <c r="J9">
-        <v>0.24897552931359</v>
+        <v>0.1889966357624789</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>7.6114441113118</v>
+        <v>7.622575</v>
       </c>
       <c r="N9">
-        <v>7.6114441113118</v>
+        <v>22.867725</v>
       </c>
       <c r="O9">
-        <v>0.07818193647306586</v>
+        <v>0.06871028498970018</v>
       </c>
       <c r="P9">
-        <v>0.07818193647306586</v>
+        <v>0.06871028498970018</v>
       </c>
       <c r="Q9">
-        <v>735.3664625589082</v>
+        <v>744.2369679016416</v>
       </c>
       <c r="R9">
-        <v>735.3664625589082</v>
+        <v>6698.132711114775</v>
       </c>
       <c r="S9">
-        <v>0.01946538901614304</v>
+        <v>0.01298601270533449</v>
       </c>
       <c r="T9">
-        <v>0.01946538901614304</v>
+        <v>0.01298601270533449</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>96.6132644219299</v>
+        <v>97.63589966666666</v>
       </c>
       <c r="H10">
-        <v>96.6132644219299</v>
+        <v>292.907699</v>
       </c>
       <c r="I10">
-        <v>0.24897552931359</v>
+        <v>0.1889966357624789</v>
       </c>
       <c r="J10">
-        <v>0.24897552931359</v>
+        <v>0.1889966357624789</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>79.3020597030673</v>
+        <v>81.20214833333334</v>
       </c>
       <c r="N10">
-        <v>79.3020597030673</v>
+        <v>243.606445</v>
       </c>
       <c r="O10">
-        <v>0.8145614029635097</v>
+        <v>0.7319603616572145</v>
       </c>
       <c r="P10">
-        <v>0.8145614029635097</v>
+        <v>0.7319603616572145</v>
       </c>
       <c r="Q10">
-        <v>7661.630863296113</v>
+        <v>7928.244807391117</v>
       </c>
       <c r="R10">
-        <v>7661.630863296113</v>
+        <v>71354.20326652005</v>
       </c>
       <c r="S10">
-        <v>0.2028058564612603</v>
+        <v>0.1383380458647009</v>
       </c>
       <c r="T10">
-        <v>0.2028058564612603</v>
+        <v>0.1383380458647009</v>
       </c>
     </row>
   </sheetData>
